--- a/data/case1/2/Plm2_1.xlsx
+++ b/data/case1/2/Plm2_1.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.30411028838430809</v>
+        <v>-0.3312325492543664</v>
       </c>
       <c r="B1" s="0">
-        <v>0.30353460294888635</v>
+        <v>0.33054250840825716</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.25742438142033208</v>
+        <v>-0.24093293693744755</v>
       </c>
       <c r="B2" s="0">
-        <v>0.25521332455288182</v>
+        <v>0.23878311116014395</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.15226570265796724</v>
+        <v>-0.13583602361698865</v>
       </c>
       <c r="B3" s="0">
-        <v>0.15171450150662835</v>
+        <v>0.13533224961756929</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.13971450161276167</v>
+        <v>-0.12333224978495849</v>
       </c>
       <c r="B4" s="0">
-        <v>0.1392331658411301</v>
+        <v>0.12290416546665028</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.13323316623738268</v>
+        <v>-0.11690416609470677</v>
       </c>
       <c r="B5" s="0">
-        <v>0.1322857264328432</v>
+        <v>0.11607005800634251</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.01580704612624384</v>
+        <v>-0.06952140940059115</v>
       </c>
       <c r="B6" s="0">
-        <v>0.01580385999335121</v>
+        <v>0.06945875225206688</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0041961395233567345</v>
+        <v>-0.049458753007932899</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0042040636006337451</v>
+        <v>0.049343590176309959</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.043363307803462092</v>
+        <v>-0.029343590937174646</v>
       </c>
       <c r="B8" s="0">
-        <v>0.04323069480957642</v>
+        <v>0.029283937405797822</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.03723069522057898</v>
+        <v>-0.023283938059694087</v>
       </c>
       <c r="B9" s="0">
-        <v>0.037126741067710967</v>
+        <v>0.0232439552021102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.031126741482275122</v>
+        <v>-0.01724395585936378</v>
       </c>
       <c r="B10" s="0">
-        <v>0.031115652862688137</v>
+        <v>0.01724448236458187</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.026615653269370654</v>
+        <v>-0.012744483009992535</v>
       </c>
       <c r="B11" s="0">
-        <v>0.026593431853687122</v>
+        <v>0.012739487891707313</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.02059343226898136</v>
+        <v>-0.0067394885493308188</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020513920819140719</v>
+        <v>0.0067137646884498636</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.028797121859844843</v>
+        <v>-0.00071376534731282248</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.028833819193361698</v>
+        <v>0.00070214737124452142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.023101317778921882</v>
+        <v>0.01129785192220556</v>
       </c>
       <c r="B14" s="0">
-        <v>0.023077966183185694</v>
+        <v>-0.011329186452171847</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021051807633441832</v>
+        <v>0.017329185794243251</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0210270664802783</v>
+        <v>-0.017380290106411067</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015027066899440555</v>
+        <v>0.023380289450317449</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004358838448084</v>
+        <v>-0.02350068370277425</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090043592593129773</v>
+        <v>0.029500683051265852</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999995624383544</v>
+        <v>-0.029589319393379832</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036110221925856223</v>
+        <v>-0.079609572101055903</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036096876669176936</v>
+        <v>0.079548210418323606</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.02709687706154007</v>
+        <v>-0.070548211041872477</v>
       </c>
       <c r="B19" s="0">
-        <v>0.02701375968689268</v>
+        <v>0.070074575838816155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013760082867591</v>
+        <v>-0.018013411165075155</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004312602801775</v>
+        <v>0.01800425915150683</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043129992878335</v>
+        <v>-0.0090042597913786437</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999996031178142</v>
+        <v>0.0089999993595428762</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093947622298395927</v>
+        <v>-0.093947088182337879</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093634575911764273</v>
+        <v>0.0936344979318946</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084634576318818766</v>
+        <v>-0.084634498576907191</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084126838074638499</v>
+        <v>0.084126712287129202</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042126838668065325</v>
+        <v>-0.042126713204734045</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999403286914</v>
+        <v>0.041999999077262373</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.11047868071348077</v>
+        <v>-0.040548649248439261</v>
       </c>
       <c r="B25" s="0">
-        <v>0.11031799824532129</v>
+        <v>0.040519564943608088</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.1043179986540288</v>
+        <v>-0.034519565586407452</v>
       </c>
       <c r="B26" s="0">
-        <v>0.10411531585402045</v>
+        <v>0.034489983935721114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.098115316265332098</v>
+        <v>-0.028489984579410432</v>
       </c>
       <c r="B27" s="0">
-        <v>0.097437907312715843</v>
+        <v>0.028400873845886743</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.091437907734435164</v>
+        <v>-0.022400874493880174</v>
       </c>
       <c r="B28" s="0">
-        <v>0.090985890447140783</v>
+        <v>0.022354246240972486</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062529087112618953</v>
+        <v>-0.010354246939167311</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062167712474190395</v>
+        <v>0.010347252874440827</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042167712981835859</v>
+        <v>0.0096527463632307686</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042019558365714804</v>
+        <v>-0.0098059969126098601</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019558850216896</v>
+        <v>0.024805996191535229</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000794387650018</v>
+        <v>-0.024878785444911955</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060007949054838861</v>
+        <v>-0.020616282984017964</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999995636150771</v>
+        <v>0.020596381311274392</v>
       </c>
     </row>
   </sheetData>
